--- a/biology/Zoologie/Isurus_desori/Isurus_desori.xlsx
+++ b/biology/Zoologie/Isurus_desori/Isurus_desori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Isurus desori est une espèce éteinte de requins lamniformes du genre Isurus. Il est aussi désigné sous les noms Isurus escheri, Isurus leptodon, Isurus oxyrinchus, Isurus praecursor, Isurus spallanzani. Le genre Isurus est aujourd’hui représenté par une dizaine d’espèces dont le Requin mako.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces restes fossilisés sont présents dans les faluns de Bretagne[1], et de Touraine[2]. Il s'agit de dents supérieures à couronne sigmoïde (profil) bien marquée, plus épaisse et plus étroite que Carchardon hastalis. Les tranchants sont bien individualisés et descendent très bas.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces restes fossilisés sont présents dans les faluns de Bretagne, et de Touraine. Il s'agit de dents supérieures à couronne sigmoïde (profil) bien marquée, plus épaisse et plus étroite que Carchardon hastalis. Les tranchants sont bien individualisés et descendent très bas.
 </t>
         </is>
       </c>
